--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H2">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I2">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J2">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N2">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q2">
-        <v>691.5084741531705</v>
+        <v>1560.465159738114</v>
       </c>
       <c r="R2">
-        <v>6223.576267378534</v>
+        <v>14044.18643764302</v>
       </c>
       <c r="S2">
-        <v>0.1892305523510634</v>
+        <v>0.415893787527677</v>
       </c>
       <c r="T2">
-        <v>0.1892305523510634</v>
+        <v>0.4158937875276771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H3">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I3">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J3">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.867725</v>
       </c>
       <c r="O3">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P3">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q3">
-        <v>238.3680252435917</v>
+        <v>165.0315284490167</v>
       </c>
       <c r="R3">
-        <v>2145.312227192325</v>
+        <v>1485.28375604115</v>
       </c>
       <c r="S3">
-        <v>0.06522915447264048</v>
+        <v>0.04398405629233141</v>
       </c>
       <c r="T3">
-        <v>0.06522915447264048</v>
+        <v>0.04398405629233141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.27132566666667</v>
+        <v>21.65036466666666</v>
       </c>
       <c r="H4">
-        <v>93.81397700000001</v>
+        <v>64.951094</v>
       </c>
       <c r="I4">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050746</v>
       </c>
       <c r="J4">
-        <v>0.9493361071405608</v>
+        <v>0.9284333993050747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>243.606445</v>
       </c>
       <c r="O4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q4">
-        <v>2539.298825364641</v>
+        <v>1758.056123133425</v>
       </c>
       <c r="R4">
-        <v>22853.68942828177</v>
+        <v>15822.50510820083</v>
       </c>
       <c r="S4">
-        <v>0.6948764003168569</v>
+        <v>0.4685555554850663</v>
       </c>
       <c r="T4">
-        <v>0.6948764003168569</v>
+        <v>0.4685555554850663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H5">
         <v>2.90415</v>
       </c>
       <c r="I5">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J5">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N5">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q5">
-        <v>21.40666454436667</v>
+        <v>69.77288009426667</v>
       </c>
       <c r="R5">
-        <v>192.6599808993</v>
+        <v>627.9559208484001</v>
       </c>
       <c r="S5">
-        <v>0.005857910795214883</v>
+        <v>0.01859580599286755</v>
       </c>
       <c r="T5">
-        <v>0.005857910795214883</v>
+        <v>0.01859580599286755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H6">
         <v>2.90415</v>
       </c>
       <c r="I6">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J6">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>22.867725</v>
       </c>
       <c r="O6">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P6">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q6">
-        <v>7.379033728750001</v>
+        <v>7.37903372875</v>
       </c>
       <c r="R6">
         <v>66.41130355875001</v>
       </c>
       <c r="S6">
-        <v>0.002019264666305735</v>
+        <v>0.001966653511353855</v>
       </c>
       <c r="T6">
-        <v>0.002019264666305735</v>
+        <v>0.001966653511353854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9680500000000002</v>
+        <v>0.96805</v>
       </c>
       <c r="H7">
         <v>2.90415</v>
       </c>
       <c r="I7">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="J7">
-        <v>0.02938809912676722</v>
+        <v>0.04151292442575075</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>243.606445</v>
       </c>
       <c r="O7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q7">
-        <v>78.60773969408335</v>
+        <v>78.60773969408334</v>
       </c>
       <c r="R7">
-        <v>707.4696572467501</v>
+        <v>707.46965724675</v>
       </c>
       <c r="S7">
-        <v>0.0215109236652466</v>
+        <v>0.02095046492152935</v>
       </c>
       <c r="T7">
-        <v>0.0215109236652466</v>
+        <v>0.02095046492152934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.102487</v>
       </c>
       <c r="I8">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J8">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N8">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O8">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P8">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q8">
-        <v>15.49755829343933</v>
+        <v>50.51273982086133</v>
       </c>
       <c r="R8">
-        <v>139.478024640954</v>
+        <v>454.6146583877521</v>
       </c>
       <c r="S8">
-        <v>0.004240890206807139</v>
+        <v>0.01346261052443094</v>
       </c>
       <c r="T8">
-        <v>0.004240890206807139</v>
+        <v>0.01346261052443094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.102487</v>
       </c>
       <c r="I9">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J9">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>22.867725</v>
       </c>
       <c r="O9">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P9">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q9">
         <v>5.342121614675</v>
@@ -1004,10 +1004,10 @@
         <v>48.079094532075</v>
       </c>
       <c r="S9">
-        <v>0.001461865850753971</v>
+        <v>0.001423777504993142</v>
       </c>
       <c r="T9">
-        <v>0.001461865850753971</v>
+        <v>0.001423777504993141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.102487</v>
       </c>
       <c r="I10">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="J10">
-        <v>0.02127579373267201</v>
+        <v>0.0300536762691746</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>243.606445</v>
       </c>
       <c r="O10">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P10">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q10">
         <v>56.90882041430167</v>
@@ -1066,10 +1066,10 @@
         <v>512.179383728715</v>
       </c>
       <c r="S10">
-        <v>0.0155730376751109</v>
+        <v>0.01516728823975052</v>
       </c>
       <c r="T10">
-        <v>0.0155730376751109</v>
+        <v>0.01516728823975052</v>
       </c>
     </row>
   </sheetData>
